--- a/вариант 2024 2025/М.Попков/3/22_20966.xlsx
+++ b/вариант 2024 2025/М.Попков/3/22_20966.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\jakov\вариант 2024 2025\М.Попков\3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BC542D-F2CB-420E-ACCB-715105F38B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A3B4FC9C-C112-49B7-A35F-111DCF2266A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="144525" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,11 +60,36 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.79998168889431442"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -85,9 +104,18 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -97,13 +125,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -165,7 +203,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -217,7 +255,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -411,18 +449,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79BA4CF-04E1-42E5-A707-76CD6CB2E487}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13:AB13"/>
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +560,7 @@
       <c r="AE1">
         <v>26</v>
       </c>
-      <c r="AF1">
+      <c r="AF1" s="3">
         <v>27</v>
       </c>
       <c r="AG1">
@@ -551,27 +589,34 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="AF2" s="3"/>
       <c r="AK2" t="b">
         <f>SUM(F2:AJ2)=B2</f>
         <v>1</v>
@@ -590,24 +635,32 @@
       <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6">
+        <v>1</v>
+      </c>
+      <c r="N3" s="6">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6">
+        <v>1</v>
+      </c>
+      <c r="P3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>1</v>
+      </c>
+      <c r="R3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="3"/>
       <c r="AK3" t="b">
         <f t="shared" ref="AK3:AK14" si="0">SUM(F3:AJ3)=B3</f>
         <v>1</v>
@@ -626,24 +679,25 @@
       <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
       <c r="X4">
         <v>1</v>
       </c>
       <c r="Y4">
         <v>1</v>
       </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="3"/>
       <c r="AK4" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -662,27 +716,47 @@
       <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4">
+        <v>1</v>
+      </c>
+      <c r="T5" s="4">
+        <v>1</v>
+      </c>
+      <c r="U5" s="4">
+        <v>1</v>
+      </c>
+      <c r="V5" s="4">
+        <v>1</v>
+      </c>
+      <c r="W5" s="4">
+        <v>1</v>
+      </c>
+      <c r="X5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="3"/>
       <c r="AK5" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -701,24 +775,45 @@
       <c r="E6" s="2">
         <v>5</v>
       </c>
-      <c r="Z6">
-        <v>1</v>
-      </c>
-      <c r="AA6">
-        <v>1</v>
-      </c>
-      <c r="AB6">
-        <v>1</v>
-      </c>
-      <c r="AC6">
-        <v>1</v>
-      </c>
-      <c r="AD6">
-        <v>1</v>
-      </c>
-      <c r="AE6">
-        <v>1</v>
-      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="3"/>
       <c r="AK6" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -767,6 +862,7 @@
       <c r="AB7">
         <v>1</v>
       </c>
+      <c r="AF7" s="3"/>
       <c r="AK7" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -785,27 +881,28 @@
       <c r="E8" s="2">
         <v>7</v>
       </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="3"/>
       <c r="AK8" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -830,6 +927,7 @@
       <c r="AA9">
         <v>1</v>
       </c>
+      <c r="AF9" s="3"/>
       <c r="AK9" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -860,6 +958,7 @@
       <c r="I10" s="1">
         <v>1</v>
       </c>
+      <c r="AF10" s="3"/>
       <c r="AK10" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -878,30 +977,31 @@
       <c r="E11" s="2">
         <v>10</v>
       </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
-      <c r="V11">
-        <v>1</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11">
-        <v>1</v>
-      </c>
-      <c r="Y11">
-        <v>1</v>
-      </c>
-      <c r="Z11">
-        <v>1</v>
-      </c>
+      <c r="V11" s="7">
+        <v>1</v>
+      </c>
+      <c r="W11" s="7">
+        <v>1</v>
+      </c>
+      <c r="X11" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="3"/>
       <c r="AK11" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -926,6 +1026,7 @@
       <c r="AD12">
         <v>1</v>
       </c>
+      <c r="AF12" s="3"/>
       <c r="AK12" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -944,15 +1045,6 @@
       <c r="E13" s="2">
         <v>12</v>
       </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
       <c r="W13">
         <v>1</v>
       </c>
@@ -971,6 +1063,16 @@
       <c r="AB13">
         <v>1</v>
       </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="3"/>
       <c r="AK13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -989,12 +1091,13 @@
       <c r="E14" s="2">
         <v>13</v>
       </c>
-      <c r="AA14">
-        <v>1</v>
-      </c>
-      <c r="AB14">
-        <v>1</v>
-      </c>
+      <c r="AD14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="3"/>
       <c r="AK14" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1055,57 +1158,57 @@
       </c>
       <c r="S15">
         <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="T15">
+      <c r="W15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="X15">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="U15">
+      <c r="Y15">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="V15">
+      <c r="Z15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AB15">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="W15">
+      <c r="AC15">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="X15">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" si="1"/>
+      <c r="AD15">
+        <f>SUM(AD2:AD14)</f>
         <v>4</v>
       </c>
-      <c r="AC15">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
       <c r="AE15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF15">
+        <f>SUM(AE2:AE14)</f>
+        <v>3</v>
+      </c>
+      <c r="AF15" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1125,6 +1228,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AF16" s="3"/>
     </row>
     <row r="22" spans="34:34" x14ac:dyDescent="0.25">
       <c r="AH22">
@@ -1144,8 +1250,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:AJ3 F4:R4 T4:AJ4 F14:AJ14 T13:AJ13 F5:AJ11 V12:AJ12 F12:L13">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="V11:AC11 F2:AJ3 F4:R4 X4:AJ4 F14:Z14 F5:AJ10 V12:AJ12 F12:L13 F11:R11 AF11:AJ11 AC14:AJ14 W13:AJ13">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
